--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>3.533810023425</v>
+        <v>18.058285442064</v>
       </c>
       <c r="R2">
-        <v>14.1352400937</v>
+        <v>72.233141768256</v>
       </c>
       <c r="S2">
-        <v>0.000242349283646013</v>
+        <v>0.001606543767681794</v>
       </c>
       <c r="T2">
-        <v>0.0001416193904955407</v>
+        <v>0.000824588235474275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>244.4991066856249</v>
+        <v>232.7941478445333</v>
       </c>
       <c r="R3">
-        <v>1466.99464011375</v>
+        <v>1396.7648870672</v>
       </c>
       <c r="S3">
-        <v>0.01676778971268004</v>
+        <v>0.02071038186722132</v>
       </c>
       <c r="T3">
-        <v>0.01469765532215683</v>
+        <v>0.01594497851546206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>326.1652531944125</v>
+        <v>250.16864023424</v>
       </c>
       <c r="R4">
-        <v>1956.991519166475</v>
+        <v>1501.01184140544</v>
       </c>
       <c r="S4">
-        <v>0.02236846772687411</v>
+        <v>0.02225609242511844</v>
       </c>
       <c r="T4">
-        <v>0.01960687928271002</v>
+        <v>0.01713502521739181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>52.44293416456875</v>
+        <v>54.108271729904</v>
       </c>
       <c r="R5">
-        <v>209.771736658275</v>
+        <v>216.433086919616</v>
       </c>
       <c r="S5">
-        <v>0.003596545214040706</v>
+        <v>0.004813707647195921</v>
       </c>
       <c r="T5">
-        <v>0.002101679581797593</v>
+        <v>0.002470724280744593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>10.945487090725</v>
+        <v>86.80567682300266</v>
       </c>
       <c r="R6">
-        <v>65.67292254435</v>
+        <v>520.8340609380159</v>
       </c>
       <c r="S6">
-        <v>0.0007506433390618247</v>
+        <v>0.00772261129368079</v>
       </c>
       <c r="T6">
-        <v>0.0006579696702100527</v>
+        <v>0.005945659136101962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>251.343205068175</v>
+        <v>335.8469088814933</v>
       </c>
       <c r="R7">
-        <v>1508.05923040905</v>
+        <v>2015.08145328896</v>
       </c>
       <c r="S7">
-        <v>0.01723715912677385</v>
+        <v>0.02987840457444277</v>
       </c>
       <c r="T7">
-        <v>0.01510907686222402</v>
+        <v>0.0230034637733936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>6.457539050352</v>
+        <v>34.658165768616</v>
       </c>
       <c r="R8">
-        <v>38.745234302112</v>
+        <v>207.948994611696</v>
       </c>
       <c r="S8">
-        <v>0.0004428591103072853</v>
+        <v>0.003083341460820796</v>
       </c>
       <c r="T8">
-        <v>0.0003881841716234859</v>
+        <v>0.002373872855837266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>446.7876084827999</v>
@@ -1013,10 +1013,10 @@
         <v>4021.0884763452</v>
       </c>
       <c r="S9">
-        <v>0.03064076906793571</v>
+        <v>0.03974817267056419</v>
       </c>
       <c r="T9">
-        <v>0.04028683597687575</v>
+        <v>0.04590333703098852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>596.0209647403441</v>
+        <v>480.13341195456</v>
       </c>
       <c r="R10">
-        <v>5364.188682663096</v>
+        <v>4321.200707591041</v>
       </c>
       <c r="S10">
-        <v>0.04087521765044697</v>
+        <v>0.04271476066241815</v>
       </c>
       <c r="T10">
-        <v>0.05374320681545464</v>
+        <v>0.04932931310165709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>95.832060308244</v>
+        <v>103.846705551576</v>
       </c>
       <c r="R11">
-        <v>574.992361849464</v>
+        <v>623.080233309456</v>
       </c>
       <c r="S11">
-        <v>0.006572178756659572</v>
+        <v>0.0092386554711089</v>
       </c>
       <c r="T11">
-        <v>0.005760784202102479</v>
+        <v>0.007112865612185441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>20.001332795184</v>
+        <v>166.600840740984</v>
       </c>
       <c r="R12">
-        <v>180.011995156656</v>
+        <v>1499.407566668856</v>
       </c>
       <c r="S12">
-        <v>0.001371694755164086</v>
+        <v>0.01482153680877819</v>
       </c>
       <c r="T12">
-        <v>0.00180352005816541</v>
+        <v>0.01711671137914703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>459.294232290192</v>
+        <v>644.5704869510399</v>
       </c>
       <c r="R13">
-        <v>4133.648090611729</v>
+        <v>5801.13438255936</v>
       </c>
       <c r="S13">
-        <v>0.03149847542466113</v>
+        <v>0.05734379944126383</v>
       </c>
       <c r="T13">
-        <v>0.04141455817056837</v>
+        <v>0.06622371735692627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>5.178085079504666</v>
+        <v>28.359349791471</v>
       </c>
       <c r="R14">
-        <v>31.068510477028</v>
+        <v>170.156098748826</v>
       </c>
       <c r="S14">
-        <v>0.0003551139425598774</v>
+        <v>0.002522971342388323</v>
       </c>
       <c r="T14">
-        <v>0.0003112719337057487</v>
+        <v>0.00194244239953774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>358.2640741547277</v>
+        <v>365.5879008730499</v>
       </c>
       <c r="R15">
-        <v>3224.37666739255</v>
+        <v>3290.29110785745</v>
       </c>
       <c r="S15">
-        <v>0.02456981024784936</v>
+        <v>0.03252429282789859</v>
       </c>
       <c r="T15">
-        <v>0.03230466941751454</v>
+        <v>0.03756081034837671</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>477.9293226923222</v>
+        <v>392.87339864136</v>
       </c>
       <c r="R16">
-        <v>4301.3639042309</v>
+        <v>3535.86058777224</v>
       </c>
       <c r="S16">
-        <v>0.03277647304753781</v>
+        <v>0.0349517296146528</v>
       </c>
       <c r="T16">
-        <v>0.0430948841603474</v>
+        <v>0.04036414548197686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>76.84453129141517</v>
+        <v>84.973482644481</v>
       </c>
       <c r="R17">
-        <v>461.067187748491</v>
+        <v>509.840895866886</v>
       </c>
       <c r="S17">
-        <v>0.005270010834520842</v>
+        <v>0.00755961131518724</v>
       </c>
       <c r="T17">
-        <v>0.004619380617067585</v>
+        <v>0.005820165015724879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>16.03840133360156</v>
+        <v>136.322607193629</v>
       </c>
       <c r="R18">
-        <v>144.345612002414</v>
+        <v>1226.903464742661</v>
       </c>
       <c r="S18">
-        <v>0.001099916251371766</v>
+        <v>0.0121278532053166</v>
       </c>
       <c r="T18">
-        <v>0.001446182552045836</v>
+        <v>0.01400590003872749</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>368.2927184458536</v>
+        <v>527.42548543224</v>
       </c>
       <c r="R19">
-        <v>3314.634466012682</v>
+        <v>4746.829368890159</v>
       </c>
       <c r="S19">
-        <v>0.02525757635405883</v>
+        <v>0.04692206960933179</v>
       </c>
       <c r="T19">
-        <v>0.03320895221308938</v>
+        <v>0.05418814075605875</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>35.268034290435</v>
+        <v>51.849041296602</v>
       </c>
       <c r="R20">
-        <v>141.07213716174</v>
+        <v>207.396165186408</v>
       </c>
       <c r="S20">
-        <v>0.002418687702290782</v>
+        <v>0.004612716662530021</v>
       </c>
       <c r="T20">
-        <v>0.00141338597351829</v>
+        <v>0.002367561948833123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>2440.143307480874</v>
+        <v>668.3997450324332</v>
       </c>
       <c r="R21">
-        <v>14640.85984488525</v>
+        <v>4010.3984701946</v>
       </c>
       <c r="S21">
-        <v>0.1673454369763898</v>
+        <v>0.05946375408379979</v>
       </c>
       <c r="T21">
-        <v>0.1466851382657025</v>
+        <v>0.04578130366661939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>3255.185552634758</v>
+        <v>718.28547622832</v>
       </c>
       <c r="R22">
-        <v>19531.11331580854</v>
+        <v>4309.71285736992</v>
       </c>
       <c r="S22">
-        <v>0.2232411707438884</v>
+        <v>0.06390180612401836</v>
       </c>
       <c r="T22">
-        <v>0.1956800411700775</v>
+        <v>0.04919817182894854</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>523.3895393772262</v>
+        <v>155.355945857222</v>
       </c>
       <c r="R23">
-        <v>2093.558157508905</v>
+        <v>621.423783428888</v>
       </c>
       <c r="S23">
-        <v>0.03589414232657308</v>
+        <v>0.01382114195669195</v>
       </c>
       <c r="T23">
-        <v>0.0209751251671715</v>
+        <v>0.007093956160779446</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>109.237851350895</v>
+        <v>249.2369021862646</v>
       </c>
       <c r="R24">
-        <v>655.4271081053699</v>
+        <v>1495.421413117588</v>
       </c>
       <c r="S24">
-        <v>0.007491550153072604</v>
+        <v>0.02217320094802393</v>
       </c>
       <c r="T24">
-        <v>0.006566650934037356</v>
+        <v>0.0170712068469793</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>2508.448591251885</v>
+        <v>964.2853583082133</v>
       </c>
       <c r="R25">
-        <v>15050.69154751131</v>
+        <v>5785.71214984928</v>
       </c>
       <c r="S25">
-        <v>0.1720298247848487</v>
+        <v>0.08578702765702884</v>
       </c>
       <c r="T25">
-        <v>0.1507911962843081</v>
+        <v>0.06604766255235638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>2.206326649822</v>
+        <v>53.09025619934601</v>
       </c>
       <c r="R26">
-        <v>13.237959898932</v>
+        <v>318.541537196076</v>
       </c>
       <c r="S26">
-        <v>0.000151310251408261</v>
+        <v>0.004723140549269139</v>
       </c>
       <c r="T26">
-        <v>0.0001326296405199886</v>
+        <v>0.003636358569650476</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>152.6524887762166</v>
+        <v>684.4005755931888</v>
       </c>
       <c r="R27">
-        <v>1373.87239898595</v>
+        <v>6159.605180338699</v>
       </c>
       <c r="S27">
-        <v>0.01046893326366228</v>
+        <v>0.06088725769922255</v>
       </c>
       <c r="T27">
-        <v>0.0137646739972782</v>
+        <v>0.07031589437392849</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>203.6405708282257</v>
+        <v>735.4805219846934</v>
       </c>
       <c r="R28">
-        <v>1832.765137454031</v>
+        <v>6619.32469786224</v>
       </c>
       <c r="S28">
-        <v>0.01396570447600155</v>
+        <v>0.06543155232741801</v>
       </c>
       <c r="T28">
-        <v>0.01836226905006008</v>
+        <v>0.07556389129733539</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>32.7426325906465</v>
+        <v>159.0750139519393</v>
       </c>
       <c r="R29">
-        <v>196.455795543879</v>
+        <v>954.450083711636</v>
       </c>
       <c r="S29">
-        <v>0.00224549523048128</v>
+        <v>0.01415200646142698</v>
       </c>
       <c r="T29">
-        <v>0.001968268656196424</v>
+        <v>0.01089566771027429</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>6.833791206507333</v>
+        <v>255.2033877676984</v>
       </c>
       <c r="R30">
-        <v>61.504120858566</v>
+        <v>2296.830489909285</v>
       </c>
       <c r="S30">
-        <v>0.0004686625462334011</v>
+        <v>0.02270400550621792</v>
       </c>
       <c r="T30">
-        <v>0.000616202912098838</v>
+        <v>0.02621981204879744</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>156.9255868078953</v>
+        <v>987.3693985777956</v>
       </c>
       <c r="R31">
-        <v>1412.330281271058</v>
+        <v>8886.324587200159</v>
       </c>
       <c r="S31">
-        <v>0.01076198304281334</v>
+        <v>0.08784068447550109</v>
       </c>
       <c r="T31">
-        <v>0.01414997922116284</v>
+        <v>0.1014431676628422</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>5.32272011273</v>
+        <v>21.580651374583</v>
       </c>
       <c r="R32">
-        <v>31.93632067638</v>
+        <v>129.483908247498</v>
       </c>
       <c r="S32">
-        <v>0.0003650330373781959</v>
+        <v>0.001919908790875064</v>
       </c>
       <c r="T32">
-        <v>0.0003199664270913135</v>
+        <v>0.001478142924568726</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>368.2711589115833</v>
+        <v>278.2019014370944</v>
       </c>
       <c r="R33">
-        <v>3314.44043020425</v>
+        <v>2503.81711293385</v>
       </c>
       <c r="S33">
-        <v>0.02525609779758537</v>
+        <v>0.02475005350562808</v>
       </c>
       <c r="T33">
-        <v>0.03320700819001354</v>
+        <v>0.02858269880781713</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>491.2789147530184</v>
+        <v>298.9653822379466</v>
       </c>
       <c r="R34">
-        <v>4421.510232777166</v>
+        <v>2690.68844014152</v>
       </c>
       <c r="S34">
-        <v>0.03369199030834986</v>
+        <v>0.02659726324118187</v>
       </c>
       <c r="T34">
-        <v>0.04429861679638396</v>
+        <v>0.03071595639831871</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>78.9909640297475</v>
+        <v>64.66238184297967</v>
       </c>
       <c r="R35">
-        <v>473.945784178485</v>
+        <v>387.974291057878</v>
       </c>
       <c r="S35">
-        <v>0.00541721355144138</v>
+        <v>0.005752647275766281</v>
       </c>
       <c r="T35">
-        <v>0.00474840983516107</v>
+        <v>0.004428978558058399</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>16.48638831607667</v>
+        <v>103.7375920799392</v>
       </c>
       <c r="R36">
-        <v>148.37749484469</v>
+        <v>933.6383287194528</v>
       </c>
       <c r="S36">
-        <v>0.0011306392737091</v>
+        <v>0.00922894826117523</v>
       </c>
       <c r="T36">
-        <v>0.001486577535568404</v>
+        <v>0.0106580880078548</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>378.5799247684967</v>
+        <v>401.3556590992977</v>
       </c>
       <c r="R37">
-        <v>3407.21932291647</v>
+        <v>3612.20093189368</v>
       </c>
       <c r="S37">
-        <v>0.02596307468772278</v>
+        <v>0.03570634846915442</v>
       </c>
       <c r="T37">
-        <v>0.03413654954549516</v>
+        <v>0.04123562010032526</v>
       </c>
     </row>
   </sheetData>
